--- a/test book 1.xlsx
+++ b/test book 1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Openscapes\Stranding files for 2023 SARs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura.dias\Documents\GitHub\Stranding-data_HI-data_SEFSC_SERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F895FE1-9B29-4DA5-932B-A72A4EE8F920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{9321A3DA-DBFE-4DDF-B036-51302C1A200D}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19380" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Species</t>
   </si>
@@ -78,12 +77,21 @@
   </si>
   <si>
     <t>Genus</t>
+  </si>
+  <si>
+    <t>SER-12345</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,16 +146,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -463,23 +488,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892EE90E-04CB-4663-843E-B2E2086215E1}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="3" max="3" width="27.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="25.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -495,8 +520,11 @@
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -513,7 +541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -530,7 +558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -547,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -564,7 +592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -581,7 +609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -596,6 +624,26 @@
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>59</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/test book 1.xlsx
+++ b/test book 1.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Species</t>
   </si>
@@ -85,7 +85,19 @@
     <t>notes</t>
   </si>
   <si>
-    <t>test</t>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>ser-weRoch</t>
+  </si>
+  <si>
+    <t>mermaids</t>
+  </si>
+  <si>
+    <t>bellissima</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -161,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -174,6 +186,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -646,6 +661,26 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5">
+        <v>60</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test book 1.xlsx
+++ b/test book 1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura.dias\Documents\GitHub\Stranding-data_HI-data_SEFSC_SERO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repositories\Stranding-data_HI-data_SEFSC_SERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D6C7F9-54E7-498B-BA74-6E1CA45550F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19380" windowHeight="10380"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Species</t>
   </si>
@@ -98,12 +88,18 @@
   </si>
   <si>
     <t>test2</t>
+  </si>
+  <si>
+    <t>SER24-00555</t>
+  </si>
+  <si>
+    <t>test 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,22 +154,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -181,15 +166,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,23 +480,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="24" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.86328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.2265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.76953125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -535,11 +513,11 @@
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -556,7 +534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -573,7 +551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -590,7 +568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -607,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -624,7 +602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -641,44 +619,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3">
-        <v>59</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="B8" s="1">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>60</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/test book 1.xlsx
+++ b/test book 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repositories\Stranding-data_HI-data_SEFSC_SERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D6C7F9-54E7-498B-BA74-6E1CA45550F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81FCCEA-28A8-47B1-B5EC-1E78C467EDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Species</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>test 3</t>
+  </si>
+  <si>
+    <t>SER25-00777</t>
+  </si>
+  <si>
+    <t>test 4</t>
   </si>
 </sst>
 </file>
@@ -481,13 +487,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="24" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.08984375" style="3" customWidth="1"/>
@@ -497,7 +503,7 @@
     <col min="6" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -517,7 +523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -534,7 +540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -551,7 +557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -568,7 +574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -585,7 +591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -602,7 +608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -619,7 +625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -639,7 +645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -659,7 +665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -677,6 +683,26 @@
       </c>
       <c r="F10" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
